--- a/example_data/EPA/label_corrected/089168-00081-20181102_2018-12-08_203212.xlsx
+++ b/example_data/EPA/label_corrected/089168-00081-20181102_2018-12-08_203212.xlsx
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Safety Procedures || Use Restrictions</t>
+          <t>safety procedures || use restrictions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions</t>
+          <t>use restrictions || mixing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Irrigation || Use Restrictions</t>
+          <t>use restrictions || irrigation</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
